--- a/BOM v 1_0_1.xlsx
+++ b/BOM v 1_0_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\3D printer\3D U1\RepRap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\3D printer\GLKLN-V1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM sum" sheetId="5" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Cross</t>
   </si>
   <si>
-    <t>weel holder</t>
-  </si>
-  <si>
     <t>Motor Holder 1</t>
   </si>
   <si>
@@ -420,12 +417,6 @@
     <t>Side panel lead</t>
   </si>
   <si>
-    <t>Side panel lead L</t>
-  </si>
-  <si>
-    <t>Side panel lead R</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -466,6 +457,15 @@
   </si>
   <si>
     <t>Power supply HolderCap</t>
+  </si>
+  <si>
+    <t>wheel holder</t>
+  </si>
+  <si>
+    <t>Side panel lead Back L</t>
+  </si>
+  <si>
+    <t>Side panel lead Back R</t>
   </si>
 </sst>
 </file>
@@ -772,6 +772,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,11 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4422,9 +4422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,25 +4437,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -4546,7 +4546,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3">
@@ -4558,7 +4558,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3">
@@ -4570,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3">
@@ -4582,7 +4582,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3">
@@ -4606,7 +4606,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3">
@@ -4618,7 +4618,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3">
@@ -4630,7 +4630,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3">
@@ -4642,7 +4642,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3">
@@ -4654,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3">
@@ -4666,10 +4666,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -4680,7 +4680,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3">
@@ -4692,7 +4692,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3">
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3">
@@ -4716,7 +4716,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="3">
@@ -4728,7 +4728,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3">
@@ -4740,7 +4740,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="3">
@@ -4752,7 +4752,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3">
@@ -4769,12 +4769,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -4784,7 +4784,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4812,7 +4812,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -4854,7 +4854,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
@@ -4868,7 +4868,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -4884,12 +4884,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -4899,7 +4899,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3">
         <v>6</v>
@@ -4913,7 +4913,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4943,22 +4943,22 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="3">
         <v>8</v>
@@ -4972,7 +4972,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
@@ -4986,7 +4986,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -5002,12 +5002,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
+      <c r="A48" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -5017,7 +5017,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -5047,12 +5047,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
+      <c r="A52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -5101,10 +5101,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -5120,22 +5120,22 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
+      <c r="A58" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>42</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
@@ -5146,10 +5146,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
@@ -5160,10 +5160,10 @@
         <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -5174,10 +5174,10 @@
         <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -5193,12 +5193,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
+      <c r="A64" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -5208,7 +5208,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="3">
         <v>4</v>
@@ -5219,10 +5219,10 @@
         <v>47</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -5238,12 +5238,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -5253,7 +5253,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
@@ -5264,10 +5264,10 @@
         <v>49</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -5283,22 +5283,22 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
+      <c r="A72" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>50</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -5309,10 +5309,10 @@
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -5328,22 +5328,22 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
+      <c r="A76" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>52</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -5354,10 +5354,10 @@
         <v>53</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -5368,10 +5368,10 @@
         <v>54</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>55</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>56</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="3">
@@ -5413,12 +5413,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28"/>
+      <c r="A83" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
@@ -5439,10 +5439,10 @@
         <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="3">
         <v>12</v>
@@ -5456,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D86" s="3">
         <v>12</v>
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" s="3">
         <v>88</v>
@@ -5484,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88" s="3">
         <v>4</v>
@@ -5498,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D89" s="3">
         <v>8</v>
@@ -5509,10 +5509,10 @@
         <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>14</v>
@@ -5621,7 +5621,7 @@
         <v>71</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>14</v>
@@ -5640,12 +5640,12 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="28"/>
+      <c r="A100" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="31"/>
     </row>
     <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
@@ -5708,10 +5708,10 @@
         <v>75</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D105" s="5">
         <v>52</v>
@@ -5727,12 +5727,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="28"/>
+      <c r="A107" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
@@ -5758,12 +5758,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="28"/>
+      <c r="A110" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="31"/>
     </row>
     <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
@@ -5803,22 +5803,22 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="28"/>
+      <c r="A114" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>79</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -5829,10 +5829,10 @@
         <v>80</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -5843,10 +5843,10 @@
         <v>81</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="3">
         <v>6</v>
@@ -5857,10 +5857,10 @@
         <v>82</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -5871,10 +5871,10 @@
         <v>83</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D119" s="3">
         <v>5</v>
@@ -5885,10 +5885,10 @@
         <v>84</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D120" s="3">
         <v>1</v>
@@ -5899,10 +5899,10 @@
         <v>85</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -5925,12 +5925,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A110:D110"/>
@@ -5941,6 +5935,12 @@
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5966,16 +5966,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6041,16 +6041,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6116,16 +6116,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6138,7 +6138,7 @@
         <v xml:space="preserve">Full complect </v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="20">
         <f>'BOM sum'!D81</f>
@@ -6172,16 +6172,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6481,16 +6481,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6610,16 +6610,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6667,16 +6667,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6742,16 +6742,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -6892,7 +6892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6907,16 +6907,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B9" s="21" t="str">
         <f>'BOM sum'!B10</f>
-        <v>weel holder</v>
+        <v>wheel holder</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="24">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B22" s="21" t="str">
         <f>'BOM sum'!B23</f>
-        <v>Side panel lead L</v>
+        <v>Side panel lead Back L</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="24">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B23" s="23" t="str">
         <f>'BOM sum'!B24</f>
-        <v>Side panel lead R</v>
+        <v>Side panel lead Back R</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="25">
@@ -7250,7 +7250,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="A24" s="26">
         <f>'BOM sum'!A25</f>
         <v>23</v>
       </c>
@@ -7258,14 +7258,14 @@
         <f>'BOM sum'!B25</f>
         <v>Power supply Holder</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28">
         <f>'BOM sum'!D25</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="A25" s="26">
         <f>'BOM sum'!A26</f>
         <v>24</v>
       </c>
@@ -7273,14 +7273,14 @@
         <f>'BOM sum'!B26</f>
         <v>Power supply HolderCap</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28">
         <f>'BOM sum'!D26</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="26">
         <f>'BOM sum'!A27</f>
         <v>25</v>
       </c>
@@ -7288,8 +7288,8 @@
         <f>'BOM sum'!B27</f>
         <v>Extruder Holder</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28">
         <f>'BOM sum'!D27</f>
         <v>1</v>
       </c>
@@ -7321,16 +7321,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7486,16 +7486,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7579,16 +7579,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7672,16 +7672,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7747,16 +7747,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7858,16 +7858,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -7969,16 +7969,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">

--- a/BOM v 1_0_1.xlsx
+++ b/BOM v 1_0_1.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="158">
   <si>
     <t>Plastic</t>
   </si>
@@ -466,13 +466,65 @@
   </si>
   <si>
     <t>Side panel lead Back R</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Printing Quality</t>
+  </si>
+  <si>
+    <t>Layer 0,2mm, filling 60%</t>
+  </si>
+  <si>
+    <t>Filament length, mm x OD 1,75mm</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>Host SW</t>
+  </si>
+  <si>
+    <t>Repetier Host</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Sliser</t>
+  </si>
+  <si>
+    <t>CuraEmgine</t>
+  </si>
+  <si>
+    <t>Total Filament length, mm x OD 1,75mm</t>
+  </si>
+  <si>
+    <t>Volume, mm^3</t>
+  </si>
+  <si>
+    <t>Density, kg/mm^3</t>
+  </si>
+  <si>
+    <t>Mass, kg</t>
+  </si>
+  <si>
+    <t>*According to my experience the real required mateerial mass is about 2,5kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +594,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -707,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,11 +862,488 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="158">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3552,32 +4087,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3750,31 +4259,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
-  <autoFilter ref="A1:D26">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I27" totalsRowCount="1" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
+  <tableColumns count="9">
+    <tableColumn id="1" name="#" dataDxfId="152" totalsRowDxfId="8">
       <calculatedColumnFormula>'BOM sum'!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="137">
+    <tableColumn id="2" name="Part definition" dataDxfId="151" totalsRowDxfId="7">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="136"/>
-    <tableColumn id="4" name="PCS" dataDxfId="135">
+    <tableColumn id="3" name="Description" dataDxfId="150" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="PCS" dataDxfId="13" totalsRowDxfId="5">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" name="Time" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Table1[Time])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Total time" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table1[Total time])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Table1[Filament length, mm x OD 1,75mm])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Total Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table1[Total Filament length, mm x OD 1,75mm])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Material" totalsRowLabel="PLA" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A1:D3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A1:D3" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3782,16 +4300,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="57">
+    <tableColumn id="1" name="#" dataDxfId="72">
       <calculatedColumnFormula>'BOM sum'!A73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="56">
+    <tableColumn id="2" name="Part definition" dataDxfId="71">
       <calculatedColumnFormula>'BOM sum'!B73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="55">
+    <tableColumn id="3" name="Description" dataDxfId="70">
       <calculatedColumnFormula>'BOM sum'!C73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="54">
+    <tableColumn id="4" name="PCS" dataDxfId="69">
       <calculatedColumnFormula>'BOM sum'!D73</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3800,7 +4318,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A1:D2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A1:D2" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="A1:D2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3808,14 +4326,14 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="48">
+    <tableColumn id="1" name="#" dataDxfId="63">
       <calculatedColumnFormula>'BOM sum'!A77</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="47">
+    <tableColumn id="2" name="Part definition" dataDxfId="62">
       <calculatedColumnFormula>'BOM sum'!B77</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="46"/>
-    <tableColumn id="4" name="PCS" dataDxfId="45">
+    <tableColumn id="3" name="Description" dataDxfId="61"/>
+    <tableColumn id="4" name="PCS" dataDxfId="60">
       <calculatedColumnFormula>'BOM sum'!D77</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3824,7 +4342,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A1:D16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A1:D16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:D16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3832,16 +4350,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="39">
+    <tableColumn id="1" name="#" dataDxfId="54">
       <calculatedColumnFormula>'BOM sum'!A83</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="38">
+    <tableColumn id="2" name="Part definition" dataDxfId="53">
       <calculatedColumnFormula>'BOM sum'!B73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="37">
+    <tableColumn id="3" name="Description" dataDxfId="52">
       <calculatedColumnFormula>'BOM sum'!C73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="36">
+    <tableColumn id="4" name="PCS" dataDxfId="51">
       <calculatedColumnFormula>'BOM sum'!D73</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3850,7 +4368,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A1:D6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A1:D6" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="A1:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3858,16 +4376,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="30">
+    <tableColumn id="1" name="#" dataDxfId="45">
       <calculatedColumnFormula>'BOM sum'!A101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="29">
+    <tableColumn id="2" name="Part definition" dataDxfId="44">
       <calculatedColumnFormula>'BOM sum'!B84</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="28">
+    <tableColumn id="3" name="Description" dataDxfId="43">
       <calculatedColumnFormula>'BOM sum'!C84</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="27">
+    <tableColumn id="4" name="PCS" dataDxfId="42">
       <calculatedColumnFormula>'BOM sum'!D84</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3876,7 +4394,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1456789101112131415" displayName="Table1456789101112131415" ref="A1:D2" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1456789101112131415" displayName="Table1456789101112131415" ref="A1:D2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A1:D2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3884,16 +4402,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="21">
+    <tableColumn id="1" name="#" dataDxfId="36">
       <calculatedColumnFormula>'BOM sum'!A108</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="20">
+    <tableColumn id="2" name="Part definition" dataDxfId="35">
       <calculatedColumnFormula>'BOM sum'!B101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="19">
+    <tableColumn id="3" name="Description" dataDxfId="34">
       <calculatedColumnFormula>'BOM sum'!C101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="18">
+    <tableColumn id="4" name="PCS" dataDxfId="33">
       <calculatedColumnFormula>'BOM sum'!D101</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3902,7 +4420,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table145678910111213141516" displayName="Table145678910111213141516" ref="A1:D3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table145678910111213141516" displayName="Table145678910111213141516" ref="A1:D3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3910,16 +4428,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="12">
+    <tableColumn id="1" name="#" dataDxfId="27">
       <calculatedColumnFormula>'BOM sum'!A111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="11">
+    <tableColumn id="2" name="Part definition" dataDxfId="26">
       <calculatedColumnFormula>'BOM sum'!B111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="10">
+    <tableColumn id="3" name="Description" dataDxfId="25">
       <calculatedColumnFormula>'BOM sum'!C111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="9">
+    <tableColumn id="4" name="PCS" dataDxfId="24">
       <calculatedColumnFormula>'BOM sum'!D111</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3928,7 +4446,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14567891011121314151617" displayName="Table14567891011121314151617" ref="A1:D8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14567891011121314151617" displayName="Table14567891011121314151617" ref="A1:D8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:D8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3936,16 +4454,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="3">
+    <tableColumn id="1" name="#" dataDxfId="18">
       <calculatedColumnFormula>'BOM sum'!A115</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="2">
+    <tableColumn id="2" name="Part definition" dataDxfId="17">
       <calculatedColumnFormula>'BOM sum'!B111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="1">
+    <tableColumn id="3" name="Description" dataDxfId="16">
       <calculatedColumnFormula>'BOM sum'!C111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="0">
+    <tableColumn id="4" name="PCS" dataDxfId="15">
       <calculatedColumnFormula>'BOM sum'!D111</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3954,7 +4472,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
   <autoFilter ref="A1:D8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3962,14 +4480,14 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="129">
+    <tableColumn id="1" name="#" dataDxfId="144">
       <calculatedColumnFormula>'BOM sum'!A30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="128">
+    <tableColumn id="2" name="Part definition" dataDxfId="143">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="127"/>
-    <tableColumn id="4" name="PCS" dataDxfId="126">
+    <tableColumn id="3" name="Description" dataDxfId="142"/>
+    <tableColumn id="4" name="PCS" dataDxfId="141">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3978,7 +4496,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D4" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D4" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136">
   <autoFilter ref="A1:D4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3986,14 +4504,14 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="120">
+    <tableColumn id="1" name="#" dataDxfId="135">
       <calculatedColumnFormula>'BOM sum'!A39</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="119">
+    <tableColumn id="2" name="Part definition" dataDxfId="134">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
-    <tableColumn id="4" name="PCS" dataDxfId="117">
+    <tableColumn id="3" name="Description" dataDxfId="133"/>
+    <tableColumn id="4" name="PCS" dataDxfId="132">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4002,7 +4520,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:D4" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113" totalsRowBorderDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:D4" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="A1:D4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4010,16 +4528,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="111">
+    <tableColumn id="1" name="#" dataDxfId="126">
       <calculatedColumnFormula>'BOM sum'!A44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="110">
+    <tableColumn id="2" name="Part definition" dataDxfId="125">
       <calculatedColumnFormula>'BOM sum'!B44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="109">
+    <tableColumn id="3" name="Description" dataDxfId="124">
       <calculatedColumnFormula>'BOM sum'!C44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="108">
+    <tableColumn id="4" name="PCS" dataDxfId="123">
       <calculatedColumnFormula>'BOM sum'!D44</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4028,7 +4546,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A1:D3" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A1:D3" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119" totalsRowBorderDxfId="118">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4036,16 +4554,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="102">
+    <tableColumn id="1" name="#" dataDxfId="117">
       <calculatedColumnFormula>'BOM sum'!A49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="101">
+    <tableColumn id="2" name="Part definition" dataDxfId="116">
       <calculatedColumnFormula>'BOM sum'!B49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="100">
+    <tableColumn id="3" name="Description" dataDxfId="115">
       <calculatedColumnFormula>'BOM sum'!C49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="99">
+    <tableColumn id="4" name="PCS" dataDxfId="114">
       <calculatedColumnFormula>'BOM sum'!D49</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4054,7 +4572,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A1:D5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A1:D5" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4062,16 +4580,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="93">
+    <tableColumn id="1" name="#" dataDxfId="108">
       <calculatedColumnFormula>'BOM sum'!A53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="92">
+    <tableColumn id="2" name="Part definition" dataDxfId="107">
       <calculatedColumnFormula>'BOM sum'!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="91">
+    <tableColumn id="3" name="Description" dataDxfId="106">
       <calculatedColumnFormula>'BOM sum'!C53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="90">
+    <tableColumn id="4" name="PCS" dataDxfId="105">
       <calculatedColumnFormula>'BOM sum'!D53</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4080,7 +4598,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A1:D5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A1:D5" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4088,16 +4606,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="84">
+    <tableColumn id="1" name="#" dataDxfId="99">
       <calculatedColumnFormula>'BOM sum'!A59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="83">
+    <tableColumn id="2" name="Part definition" dataDxfId="98">
       <calculatedColumnFormula>'BOM sum'!B59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="82">
+    <tableColumn id="3" name="Description" dataDxfId="97">
       <calculatedColumnFormula>'BOM sum'!C59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="81">
+    <tableColumn id="4" name="PCS" dataDxfId="96">
       <calculatedColumnFormula>'BOM sum'!D59</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4106,7 +4624,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A1:D3" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A1:D3" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4114,16 +4632,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="75">
+    <tableColumn id="1" name="#" dataDxfId="90">
       <calculatedColumnFormula>'BOM sum'!A65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="74">
+    <tableColumn id="2" name="Part definition" dataDxfId="89">
       <calculatedColumnFormula>'BOM sum'!B65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="73">
+    <tableColumn id="3" name="Description" dataDxfId="88">
       <calculatedColumnFormula>'BOM sum'!C65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="72">
+    <tableColumn id="4" name="PCS" dataDxfId="87">
       <calculatedColumnFormula>'BOM sum'!D65</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4132,7 +4650,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A1:D3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A1:D3" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4140,16 +4658,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="66">
+    <tableColumn id="1" name="#" dataDxfId="81">
       <calculatedColumnFormula>'BOM sum'!A69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="65">
+    <tableColumn id="2" name="Part definition" dataDxfId="80">
       <calculatedColumnFormula>'BOM sum'!B69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="64">
+    <tableColumn id="3" name="Description" dataDxfId="79">
       <calculatedColumnFormula>'BOM sum'!C69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="63">
+    <tableColumn id="4" name="PCS" dataDxfId="78">
       <calculatedColumnFormula>'BOM sum'!D69</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5925,6 +6443,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A110:D110"/>
@@ -5935,12 +6459,6 @@
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6890,10 +7408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6902,10 +7420,13 @@
     <col min="2" max="2" width="54.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="19"/>
+    <col min="5" max="6" width="17.7109375" style="19" customWidth="1"/>
+    <col min="7" max="8" width="41.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>94</v>
       </c>
@@ -6918,8 +7439,23 @@
       <c r="D1" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E1" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <f>'BOM sum'!A3</f>
         <v>1</v>
@@ -6933,8 +7469,25 @@
         <f>'BOM sum'!D3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="41">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="F2" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="G2" s="38">
+        <v>17076</v>
+      </c>
+      <c r="H2" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>17076</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <f>'BOM sum'!A4</f>
         <v>2</v>
@@ -6948,8 +7501,25 @@
         <f>'BOM sum'!D4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="41">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G3" s="38">
+        <v>10969</v>
+      </c>
+      <c r="H3" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>10969</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <f>'BOM sum'!A5</f>
         <v>3</v>
@@ -6963,8 +7533,25 @@
         <f>'BOM sum'!D5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="42">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G4" s="38">
+        <v>10957</v>
+      </c>
+      <c r="H4" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>10957</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <f>'BOM sum'!A6</f>
         <v>4</v>
@@ -6978,8 +7565,25 @@
         <f>'BOM sum'!D6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="42">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="G5" s="38">
+        <v>5578</v>
+      </c>
+      <c r="H5" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>5578</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <f>'BOM sum'!A7</f>
         <v>5</v>
@@ -6993,8 +7597,25 @@
         <f>'BOM sum'!D7</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G6" s="38">
+        <v>4328</v>
+      </c>
+      <c r="H6" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>17312</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <f>'BOM sum'!A8</f>
         <v>6</v>
@@ -7008,8 +7629,25 @@
         <f>'BOM sum'!D8</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="41">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G7" s="38">
+        <v>6641</v>
+      </c>
+      <c r="H7" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>26564</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f>'BOM sum'!A9</f>
         <v>7</v>
@@ -7023,8 +7661,25 @@
         <f>'BOM sum'!D9</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="42">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="G8" s="38">
+        <v>5251</v>
+      </c>
+      <c r="H8" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>5251</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f>'BOM sum'!A10</f>
         <v>8</v>
@@ -7038,8 +7693,25 @@
         <f>'BOM sum'!D10</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E9" s="42">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="F9" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="G9" s="38">
+        <v>2036</v>
+      </c>
+      <c r="H9" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>4072</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <f>'BOM sum'!A11</f>
         <v>9</v>
@@ -7053,8 +7725,25 @@
         <f>'BOM sum'!D11</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E10" s="42">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F10" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G10" s="38">
+        <v>3178</v>
+      </c>
+      <c r="H10" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>6356</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <f>'BOM sum'!A12</f>
         <v>10</v>
@@ -7068,8 +7757,25 @@
         <f>'BOM sum'!D12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E11" s="42">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="F11" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="G11" s="38">
+        <v>16661</v>
+      </c>
+      <c r="H11" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>16661</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <f>'BOM sum'!A13</f>
         <v>11</v>
@@ -7083,8 +7789,25 @@
         <f>'BOM sum'!D13</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="42">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="F12" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="G12" s="38">
+        <v>18369</v>
+      </c>
+      <c r="H12" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>18369</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <f>'BOM sum'!A14</f>
         <v>12</v>
@@ -7098,8 +7821,25 @@
         <f>'BOM sum'!D14</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E13" s="42">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F13" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G13" s="38">
+        <v>2578</v>
+      </c>
+      <c r="H13" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>5156</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <f>'BOM sum'!A15</f>
         <v>13</v>
@@ -7113,8 +7853,25 @@
         <f>'BOM sum'!D15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E14" s="41">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F14" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="G14" s="38">
+        <v>7484</v>
+      </c>
+      <c r="H14" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>7484</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <f>'BOM sum'!A16</f>
         <v>14</v>
@@ -7128,8 +7885,25 @@
         <f>'BOM sum'!D16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E15" s="41">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F15" s="41">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G15" s="38">
+        <v>25153</v>
+      </c>
+      <c r="H15" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>25153</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <f>'BOM sum'!A17</f>
         <v>15</v>
@@ -7143,8 +7917,25 @@
         <f>'BOM sum'!D17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E16" s="42">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="F16" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="G16" s="38">
+        <v>16116</v>
+      </c>
+      <c r="H16" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>16116</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <f>'BOM sum'!A18</f>
         <v>16</v>
@@ -7158,8 +7949,25 @@
         <f>'BOM sum'!D18</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E17" s="42">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F17" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G17" s="38">
+        <v>953</v>
+      </c>
+      <c r="H17" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>5718</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <f>'BOM sum'!A19</f>
         <v>17</v>
@@ -7173,8 +7981,25 @@
         <f>'BOM sum'!D19</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E18" s="42">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F18" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G18" s="38">
+        <v>580</v>
+      </c>
+      <c r="H18" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>3480</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <f>'BOM sum'!A20</f>
         <v>18</v>
@@ -7188,8 +8013,21 @@
         <f>'BOM sum'!D20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <f>'BOM sum'!A21</f>
         <v>19</v>
@@ -7203,8 +8041,25 @@
         <f>'BOM sum'!D21</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E20" s="42">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="F20" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G20" s="38">
+        <v>31118</v>
+      </c>
+      <c r="H20" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>124472</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f>'BOM sum'!A22</f>
         <v>20</v>
@@ -7218,8 +8073,25 @@
         <f>'BOM sum'!D22</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E21" s="42">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="F21" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="G21" s="38">
+        <v>6861</v>
+      </c>
+      <c r="H21" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>96054</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <f>'BOM sum'!A23</f>
         <v>21</v>
@@ -7233,8 +8105,25 @@
         <f>'BOM sum'!D23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E22" s="42">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="F22" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G22" s="38">
+        <v>9732</v>
+      </c>
+      <c r="H22" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>9732</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <f>'BOM sum'!A24</f>
         <v>22</v>
@@ -7248,8 +8137,25 @@
         <f>'BOM sum'!D24</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E23" s="42">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="F23" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G23" s="38">
+        <v>10919</v>
+      </c>
+      <c r="H23" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>10919</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <f>'BOM sum'!A25</f>
         <v>23</v>
@@ -7263,8 +8169,25 @@
         <f>'BOM sum'!D25</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E24" s="42">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="F24" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="G24" s="38">
+        <v>3623</v>
+      </c>
+      <c r="H24" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>3623</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <f>'BOM sum'!A26</f>
         <v>24</v>
@@ -7278,8 +8201,25 @@
         <f>'BOM sum'!D26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E25" s="42">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="F25" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G25" s="38">
+        <v>5889</v>
+      </c>
+      <c r="H25" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>5889</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <f>'BOM sum'!A27</f>
         <v>25</v>
@@ -7293,11 +8233,104 @@
         <f>'BOM sum'!D27</f>
         <v>1</v>
       </c>
+      <c r="E26" s="42">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="F26" s="42">
+        <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="G26" s="38">
+        <v>3175</v>
+      </c>
+      <c r="H26" s="38">
+        <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
+        <v>3175</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44">
+        <f>SUM(Table1[Time])</f>
+        <v>1.1048611111111108</v>
+      </c>
+      <c r="F27" s="44">
+        <f>SUM(Table1[Total time])</f>
+        <v>2.2875000000000001</v>
+      </c>
+      <c r="G27" s="43">
+        <f>SUM(Table1[Filament length, mm x OD 1,75mm])</f>
+        <v>225225</v>
+      </c>
+      <c r="H27" s="43">
+        <f>SUM(Table1[Total Filament length, mm x OD 1,75mm])</f>
+        <v>456136</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="38">
+        <f>1.75*1.75*PI()*Table1[[#Totals],[Total Filament length, mm x OD 1,75mm]]</f>
+        <v>4388542.6140783662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="38">
+        <f>1.24*0.000001</f>
+        <v>1.24E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="46">
+        <f>H28*H29</f>
+        <v>5.4417928414571737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="19" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BOM v 1_0_1.xlsx
+++ b/BOM v 1_0_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="BOM sum" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="159">
   <si>
     <t>Plastic</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Fitings</t>
   </si>
   <si>
-    <t xml:space="preserve">two extruders </t>
-  </si>
-  <si>
     <t>Finaly produced from Fiberboard</t>
   </si>
   <si>
@@ -514,6 +511,12 @@
   </si>
   <si>
     <t>*According to my experience the real required mateerial mass is about 2,5kg</t>
+  </si>
+  <si>
+    <t>V6 Dual Nozzle 2 In 2 Out Double Head with 3010 Fun</t>
+  </si>
+  <si>
+    <t>15A 250V IEC320 C14 3 Pin Fused Power Socket Connector Rocker Switch</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -765,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,6 +838,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,488 +892,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="158">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4091,16 +3648,21 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4111,23 +3673,22 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4141,6 +3702,452 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4258,41 +4265,165 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>465874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="932983"/>
+          <a:ext cx="3932975" cy="3971534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="990601"/>
+          <a:ext cx="4981575" cy="3982824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590039</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="2209599"/>
+          <a:ext cx="3171314" cy="2542965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I27" totalsRowCount="1" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
   <tableColumns count="9">
-    <tableColumn id="1" name="#" dataDxfId="152" totalsRowDxfId="8">
+    <tableColumn id="1" name="#" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula>'BOM sum'!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="151" totalsRowDxfId="7">
+    <tableColumn id="2" name="Part definition" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="150" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="PCS" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="3" name="Description" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="4" name="PCS" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Time" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
+    <tableColumn id="5" name="Time" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
       <totalsRowFormula>SUM(Table1[Time])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Total time" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="9" name="Total time" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total time])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2">
+    <tableColumn id="6" name="Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
       <totalsRowFormula>SUM(Table1[Filament length, mm x OD 1,75mm])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="10" name="Total Filament length, mm x OD 1,75mm" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total Filament length, mm x OD 1,75mm])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Material" totalsRowLabel="PLA" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Material" totalsRowLabel="PLA" dataDxfId="136" totalsRowDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A1:D3" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A1:D3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4300,16 +4431,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="72">
+    <tableColumn id="1" name="#" dataDxfId="57">
       <calculatedColumnFormula>'BOM sum'!A73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="71">
+    <tableColumn id="2" name="Part definition" dataDxfId="56">
       <calculatedColumnFormula>'BOM sum'!B73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="70">
+    <tableColumn id="3" name="Description" dataDxfId="55">
       <calculatedColumnFormula>'BOM sum'!C73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="69">
+    <tableColumn id="4" name="PCS" dataDxfId="54">
       <calculatedColumnFormula>'BOM sum'!D73</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4318,7 +4449,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A1:D2" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A1:D2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="A1:D2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4326,14 +4457,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="63">
+    <tableColumn id="1" name="#" dataDxfId="48">
       <calculatedColumnFormula>'BOM sum'!A77</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="62">
+    <tableColumn id="2" name="Part definition" dataDxfId="47">
       <calculatedColumnFormula>'BOM sum'!B77</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="61"/>
-    <tableColumn id="4" name="PCS" dataDxfId="60">
+    <tableColumn id="3" name="Description" dataDxfId="46">
+      <calculatedColumnFormula>'BOM sum'!C81</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="PCS" dataDxfId="45">
       <calculatedColumnFormula>'BOM sum'!D77</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4342,7 +4475,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A1:D16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A1:D16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:D16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4350,16 +4483,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="54">
+    <tableColumn id="1" name="#" dataDxfId="39">
       <calculatedColumnFormula>'BOM sum'!A83</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="53">
+    <tableColumn id="2" name="Part definition" dataDxfId="38">
       <calculatedColumnFormula>'BOM sum'!B73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="52">
+    <tableColumn id="3" name="Description" dataDxfId="37">
       <calculatedColumnFormula>'BOM sum'!C73</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="51">
+    <tableColumn id="4" name="PCS" dataDxfId="36">
       <calculatedColumnFormula>'BOM sum'!D73</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4368,7 +4501,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A1:D6" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A1:D6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4376,16 +4509,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="45">
+    <tableColumn id="1" name="#" dataDxfId="30">
       <calculatedColumnFormula>'BOM sum'!A101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="44">
+    <tableColumn id="2" name="Part definition" dataDxfId="29">
       <calculatedColumnFormula>'BOM sum'!B84</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="43">
+    <tableColumn id="3" name="Description" dataDxfId="28">
       <calculatedColumnFormula>'BOM sum'!C84</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="42">
+    <tableColumn id="4" name="PCS" dataDxfId="27">
       <calculatedColumnFormula>'BOM sum'!D84</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4394,7 +4527,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1456789101112131415" displayName="Table1456789101112131415" ref="A1:D2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1456789101112131415" displayName="Table1456789101112131415" ref="A1:D2" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4402,16 +4535,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="36">
+    <tableColumn id="1" name="#" dataDxfId="21">
       <calculatedColumnFormula>'BOM sum'!A108</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="35">
+    <tableColumn id="2" name="Part definition" dataDxfId="20">
       <calculatedColumnFormula>'BOM sum'!B101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="34">
+    <tableColumn id="3" name="Description" dataDxfId="19">
       <calculatedColumnFormula>'BOM sum'!C101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="33">
+    <tableColumn id="4" name="PCS" dataDxfId="18">
       <calculatedColumnFormula>'BOM sum'!D101</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4420,7 +4553,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table145678910111213141516" displayName="Table145678910111213141516" ref="A1:D3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table145678910111213141516" displayName="Table145678910111213141516" ref="A1:D3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4428,16 +4561,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="27">
+    <tableColumn id="1" name="#" dataDxfId="12">
       <calculatedColumnFormula>'BOM sum'!A111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="26">
+    <tableColumn id="2" name="Part definition" dataDxfId="11">
       <calculatedColumnFormula>'BOM sum'!B111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="25">
+    <tableColumn id="3" name="Description" dataDxfId="10">
       <calculatedColumnFormula>'BOM sum'!C111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="24">
+    <tableColumn id="4" name="PCS" dataDxfId="9">
       <calculatedColumnFormula>'BOM sum'!D111</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4446,24 +4579,24 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14567891011121314151617" displayName="Table14567891011121314151617" ref="A1:D8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:D8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14567891011121314151617" displayName="Table14567891011121314151617" ref="A1:D9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="18">
+    <tableColumn id="1" name="#" dataDxfId="3">
       <calculatedColumnFormula>'BOM sum'!A115</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="17">
+    <tableColumn id="2" name="Part definition" dataDxfId="2">
       <calculatedColumnFormula>'BOM sum'!B111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="16">
+    <tableColumn id="3" name="Description" dataDxfId="1">
       <calculatedColumnFormula>'BOM sum'!C111</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="15">
+    <tableColumn id="4" name="PCS" dataDxfId="0">
       <calculatedColumnFormula>'BOM sum'!D111</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4472,7 +4605,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="130">
   <autoFilter ref="A1:D8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4480,14 +4613,14 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="144">
+    <tableColumn id="1" name="#" dataDxfId="129">
       <calculatedColumnFormula>'BOM sum'!A30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="143">
+    <tableColumn id="2" name="Part definition" dataDxfId="128">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="142"/>
-    <tableColumn id="4" name="PCS" dataDxfId="141">
+    <tableColumn id="3" name="Description" dataDxfId="127"/>
+    <tableColumn id="4" name="PCS" dataDxfId="126">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4496,7 +4629,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D4" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D4" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
   <autoFilter ref="A1:D4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4504,14 +4637,14 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="135">
+    <tableColumn id="1" name="#" dataDxfId="120">
       <calculatedColumnFormula>'BOM sum'!A39</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="134">
+    <tableColumn id="2" name="Part definition" dataDxfId="119">
       <calculatedColumnFormula>'BOM sum'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="133"/>
-    <tableColumn id="4" name="PCS" dataDxfId="132">
+    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="4" name="PCS" dataDxfId="117">
       <calculatedColumnFormula>'BOM sum'!D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4520,7 +4653,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:D4" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:D4" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113" totalsRowBorderDxfId="112">
   <autoFilter ref="A1:D4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4528,16 +4661,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="126">
+    <tableColumn id="1" name="#" dataDxfId="111">
       <calculatedColumnFormula>'BOM sum'!A44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="125">
+    <tableColumn id="2" name="Part definition" dataDxfId="110">
       <calculatedColumnFormula>'BOM sum'!B44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="124">
+    <tableColumn id="3" name="Description" dataDxfId="109">
       <calculatedColumnFormula>'BOM sum'!C44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="123">
+    <tableColumn id="4" name="PCS" dataDxfId="108">
       <calculatedColumnFormula>'BOM sum'!D44</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4546,7 +4679,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A1:D3" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119" totalsRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A1:D3" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4554,16 +4687,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="117">
+    <tableColumn id="1" name="#" dataDxfId="102">
       <calculatedColumnFormula>'BOM sum'!A49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="116">
+    <tableColumn id="2" name="Part definition" dataDxfId="101">
       <calculatedColumnFormula>'BOM sum'!B49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="115">
+    <tableColumn id="3" name="Description" dataDxfId="100">
       <calculatedColumnFormula>'BOM sum'!C49</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="114">
+    <tableColumn id="4" name="PCS" dataDxfId="99">
       <calculatedColumnFormula>'BOM sum'!D49</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4572,7 +4705,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A1:D5" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A1:D5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4580,16 +4713,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="108">
+    <tableColumn id="1" name="#" dataDxfId="93">
       <calculatedColumnFormula>'BOM sum'!A53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="107">
+    <tableColumn id="2" name="Part definition" dataDxfId="92">
       <calculatedColumnFormula>'BOM sum'!B53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="106">
+    <tableColumn id="3" name="Description" dataDxfId="91">
       <calculatedColumnFormula>'BOM sum'!C53</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="105">
+    <tableColumn id="4" name="PCS" dataDxfId="90">
       <calculatedColumnFormula>'BOM sum'!D53</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4598,7 +4731,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A1:D5" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A1:D5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="85">
   <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4606,16 +4739,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="99">
+    <tableColumn id="1" name="#" dataDxfId="84">
       <calculatedColumnFormula>'BOM sum'!A59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="98">
+    <tableColumn id="2" name="Part definition" dataDxfId="83">
       <calculatedColumnFormula>'BOM sum'!B59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="97">
+    <tableColumn id="3" name="Description" dataDxfId="82">
       <calculatedColumnFormula>'BOM sum'!C59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="96">
+    <tableColumn id="4" name="PCS" dataDxfId="81">
       <calculatedColumnFormula>'BOM sum'!D59</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4624,7 +4757,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A1:D3" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A1:D3" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4632,16 +4765,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="90">
+    <tableColumn id="1" name="#" dataDxfId="75">
       <calculatedColumnFormula>'BOM sum'!A65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="89">
+    <tableColumn id="2" name="Part definition" dataDxfId="74">
       <calculatedColumnFormula>'BOM sum'!B65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="88">
+    <tableColumn id="3" name="Description" dataDxfId="73">
       <calculatedColumnFormula>'BOM sum'!C65</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="87">
+    <tableColumn id="4" name="PCS" dataDxfId="72">
       <calculatedColumnFormula>'BOM sum'!D65</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4650,7 +4783,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A1:D3" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A1:D3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A1:D3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4658,16 +4791,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="81">
+    <tableColumn id="1" name="#" dataDxfId="66">
       <calculatedColumnFormula>'BOM sum'!A69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Part definition" dataDxfId="80">
+    <tableColumn id="2" name="Part definition" dataDxfId="65">
       <calculatedColumnFormula>'BOM sum'!B69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="79">
+    <tableColumn id="3" name="Description" dataDxfId="64">
       <calculatedColumnFormula>'BOM sum'!C69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="PCS" dataDxfId="78">
+    <tableColumn id="4" name="PCS" dataDxfId="63">
       <calculatedColumnFormula>'BOM sum'!D69</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4938,11 +5071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,12 +5101,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -5064,7 +5197,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3">
@@ -5187,7 +5320,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -5222,7 +5355,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3">
@@ -5234,7 +5367,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="3">
@@ -5246,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="3">
@@ -5258,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="3">
@@ -5270,7 +5403,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="3">
@@ -5287,12 +5420,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -5302,7 +5435,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -5316,7 +5449,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5330,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -5344,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -5358,7 +5491,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -5372,7 +5505,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
@@ -5386,7 +5519,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -5402,12 +5535,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -5461,12 +5594,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
@@ -5476,7 +5609,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3">
         <v>8</v>
@@ -5490,7 +5623,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
@@ -5504,7 +5637,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -5520,12 +5653,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -5565,12 +5698,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -5638,12 +5771,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -5711,12 +5844,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -5756,12 +5889,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -5801,12 +5934,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -5846,12 +5979,12 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -5916,9 +6049,11 @@
       <c r="B81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,16 +6062,16 @@
       <c r="C82" s="6"/>
       <c r="D82" s="12">
         <f>SUM(D77:D81)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
@@ -6158,12 +6293,12 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
@@ -6245,12 +6380,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="40"/>
     </row>
     <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
@@ -6276,12 +6411,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="31"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="40"/>
     </row>
     <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
@@ -6321,12 +6456,12 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="31"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="40"/>
     </row>
     <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
@@ -6426,18 +6561,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="13">
-        <f>SUM(D115:D121)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="15">
-        <f>SUM(D122,D113,D109,D106,D99,D82,D75,D71,D67,D51,D63,D57,D47,D42,D37,D28)</f>
+    <row r="122" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>86</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="13">
+        <f>SUM(D115:D122)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="15">
+        <f>SUM(D123,D113,D109,D106,D99,D82,D75,D71,D67,D51,D63,D57,D47,D42,D37,D28)</f>
         <v>540</v>
       </c>
     </row>
@@ -6627,7 +6776,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="19"/>
     <col min="2" max="2" width="54.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="73" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="19" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
@@ -6655,18 +6804,20 @@
         <f>'BOM sum'!B81</f>
         <v xml:space="preserve">Full complect </v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>128</v>
+      <c r="C2" s="20" t="str">
+        <f>'BOM sum'!C81</f>
+        <v>V6 Dual Nozzle 2 In 2 Out Double Head with 3010 Fun</v>
       </c>
       <c r="D2" s="20">
         <f>'BOM sum'!D81</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7243,10 +7394,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7398,10 +7549,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
+        <f>'BOM sum'!A122</f>
+        <v>86</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>'BOM sum'!B122</f>
+        <v>15A 250V IEC320 C14 3 Pin Fused Power Socket Connector Rocker Switch</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>'BOM sum'!C122</f>
+        <v>15A 250V IEC320 C14 3 Pin Fused Power Socket Connector Rocker Switch</v>
+      </c>
+      <c r="D9" s="48">
+        <f>'BOM sum'!D118</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7410,7 +7580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -7439,20 +7609,20 @@
       <c r="D1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7469,22 +7639,22 @@
         <f>'BOM sum'!D3</f>
         <v>1</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="32">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="29">
         <v>17076</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>17076</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>147</v>
+      <c r="I2" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7501,22 +7671,22 @@
         <f>'BOM sum'!D4</f>
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="32">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="29">
         <v>10969</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>10969</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>147</v>
+      <c r="I3" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7533,22 +7703,22 @@
         <f>'BOM sum'!D5</f>
         <v>1</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="33">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="29">
         <v>10957</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>10957</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>147</v>
+      <c r="I4" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7565,22 +7735,22 @@
         <f>'BOM sum'!D6</f>
         <v>1</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="33">
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="29">
         <v>5578</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>5578</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>147</v>
+      <c r="I5" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7597,22 +7767,22 @@
         <f>'BOM sum'!D7</f>
         <v>4</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="29">
         <v>4328</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>17312</v>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>147</v>
+      <c r="I6" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7629,22 +7799,22 @@
         <f>'BOM sum'!D8</f>
         <v>4</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="32">
         <v>3.125E-2</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>0.125</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="29">
         <v>6641</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>26564</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>147</v>
+      <c r="I7" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7661,22 +7831,22 @@
         <f>'BOM sum'!D9</f>
         <v>1</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="33">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="29">
         <v>5251</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>5251</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>147</v>
+      <c r="I8" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7693,22 +7863,22 @@
         <f>'BOM sum'!D10</f>
         <v>2</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="33">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="29">
         <v>2036</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>4072</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>147</v>
+      <c r="I9" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7725,22 +7895,22 @@
         <f>'BOM sum'!D11</f>
         <v>2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="33">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="29">
         <v>3178</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>6356</v>
       </c>
-      <c r="I10" s="38" t="s">
-        <v>147</v>
+      <c r="I10" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7757,22 +7927,22 @@
         <f>'BOM sum'!D12</f>
         <v>1</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="33">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="29">
         <v>16661</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>16661</v>
       </c>
-      <c r="I11" s="38" t="s">
-        <v>147</v>
+      <c r="I11" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7789,22 +7959,22 @@
         <f>'BOM sum'!D13</f>
         <v>1</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="33">
         <v>7.4305555555555555E-2</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>7.4305555555555555E-2</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="29">
         <v>18369</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>18369</v>
       </c>
-      <c r="I12" s="38" t="s">
-        <v>147</v>
+      <c r="I12" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7821,22 +7991,22 @@
         <f>'BOM sum'!D14</f>
         <v>2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="33">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="29">
         <v>2578</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>5156</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>147</v>
+      <c r="I13" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7853,22 +8023,22 @@
         <f>'BOM sum'!D15</f>
         <v>1</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="32">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="29">
         <v>7484</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>7484</v>
       </c>
-      <c r="I14" s="38" t="s">
-        <v>147</v>
+      <c r="I14" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7885,22 +8055,22 @@
         <f>'BOM sum'!D16</f>
         <v>1</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="32">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="32">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="29">
         <v>25153</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>25153</v>
       </c>
-      <c r="I15" s="38" t="s">
-        <v>147</v>
+      <c r="I15" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7917,22 +8087,22 @@
         <f>'BOM sum'!D17</f>
         <v>1</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="33">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="29">
         <v>16116</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>16116</v>
       </c>
-      <c r="I16" s="38" t="s">
-        <v>147</v>
+      <c r="I16" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7949,22 +8119,22 @@
         <f>'BOM sum'!D18</f>
         <v>6</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="33">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="29">
         <v>953</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>5718</v>
       </c>
-      <c r="I17" s="38" t="s">
-        <v>147</v>
+      <c r="I17" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7981,22 +8151,22 @@
         <f>'BOM sum'!D19</f>
         <v>6</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="33">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="29">
         <v>580</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>3480</v>
       </c>
-      <c r="I18" s="38" t="s">
-        <v>147</v>
+      <c r="I18" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8013,18 +8183,18 @@
         <f>'BOM sum'!D20</f>
         <v>1</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>0</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="38" t="s">
-        <v>147</v>
+      <c r="I19" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8041,22 +8211,22 @@
         <f>'BOM sum'!D21</f>
         <v>4</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="33">
         <v>0.15833333333333333</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="29">
         <v>31118</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>124472</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>147</v>
+      <c r="I20" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8073,22 +8243,22 @@
         <f>'BOM sum'!D22</f>
         <v>14</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="33">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>0.49583333333333335</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="29">
         <v>6861</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>96054</v>
       </c>
-      <c r="I21" s="38" t="s">
-        <v>147</v>
+      <c r="I21" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8105,22 +8275,22 @@
         <f>'BOM sum'!D23</f>
         <v>1</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="33">
         <v>5.0694444444444452E-2</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>5.0694444444444452E-2</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="29">
         <v>9732</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>9732</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>147</v>
+      <c r="I22" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8137,22 +8307,22 @@
         <f>'BOM sum'!D24</f>
         <v>1</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="33">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="29">
         <v>10919</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>10919</v>
       </c>
-      <c r="I23" s="38" t="s">
-        <v>147</v>
+      <c r="I23" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8169,22 +8339,22 @@
         <f>'BOM sum'!D25</f>
         <v>1</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="33">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="29">
         <v>3623</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>3623</v>
       </c>
-      <c r="I24" s="38" t="s">
-        <v>147</v>
+      <c r="I24" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8201,22 +8371,22 @@
         <f>'BOM sum'!D26</f>
         <v>1</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="33">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="29">
         <v>5889</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>5889</v>
       </c>
-      <c r="I25" s="38" t="s">
-        <v>147</v>
+      <c r="I25" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8233,97 +8403,97 @@
         <f>'BOM sum'!D27</f>
         <v>1</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="33">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="33">
         <f>Table1[[#This Row],[Time]]*Table1[[#This Row],[PCS]]</f>
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="29">
         <v>3175</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="29">
         <f>Table1[[#This Row],[Filament length, mm x OD 1,75mm]]*Table1[[#This Row],[PCS]]</f>
         <v>3175</v>
       </c>
-      <c r="I26" s="38" t="s">
-        <v>147</v>
+      <c r="I26" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44">
+      <c r="D27" s="34"/>
+      <c r="E27" s="35">
         <f>SUM(Table1[Time])</f>
         <v>1.1048611111111108</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="35">
         <f>SUM(Table1[Total time])</f>
         <v>2.2875000000000001</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="34">
         <f>SUM(Table1[Filament length, mm x OD 1,75mm])</f>
         <v>225225</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="34">
         <f>SUM(Table1[Total Filament length, mm x OD 1,75mm])</f>
         <v>456136</v>
       </c>
-      <c r="I27" s="43" t="s">
-        <v>147</v>
+      <c r="I27" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="38">
+      <c r="G28" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="29">
         <f>1.75*1.75*PI()*Table1[[#Totals],[Total Filament length, mm x OD 1,75mm]]</f>
         <v>4388542.6140783662</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="38">
+      <c r="G29" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="29">
         <f>1.24*0.000001</f>
         <v>1.24E-6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="46">
+      <c r="G30" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="37">
         <f>H28*H29</f>
         <v>5.4417928414571737</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G31" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/BOM v 1_0_1.xlsx
+++ b/BOM v 1_0_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14820" tabRatio="746"/>
   </bookViews>
   <sheets>
     <sheet name="BOM sum" sheetId="5" r:id="rId1"/>
@@ -5073,9 +5073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7396,7 +7396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/BOM v 1_0_1.xlsx
+++ b/BOM v 1_0_1.xlsx
@@ -865,6 +865,10 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,10 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5074,8 +5074,8 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M101" sqref="M101"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5101,12 +5101,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -5420,12 +5420,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -5535,12 +5535,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -5594,12 +5594,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
@@ -5653,12 +5653,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -5698,12 +5698,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -5771,12 +5771,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
@@ -5844,12 +5844,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -5889,12 +5889,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -5934,12 +5934,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -5979,12 +5979,12 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -6066,12 +6066,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
@@ -6293,12 +6293,12 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="40"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
@@ -6380,12 +6380,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="40"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
@@ -6411,12 +6411,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="42"/>
     </row>
     <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
@@ -6456,12 +6456,12 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="40"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="42"/>
     </row>
     <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
@@ -6592,12 +6592,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A110:D110"/>
@@ -6608,6 +6602,12 @@
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7550,7 +7550,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="38">
         <f>'BOM sum'!A122</f>
         <v>86</v>
       </c>
@@ -7562,7 +7562,7 @@
         <f>'BOM sum'!C122</f>
         <v>15A 250V IEC320 C14 3 Pin Fused Power Socket Connector Rocker Switch</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="39">
         <f>'BOM sum'!D118</f>
         <v>1</v>
       </c>
